--- a/Drugs.xlsx
+++ b/Drugs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Investing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077F2F81-4999-4E3D-85BF-602A0BF889CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355C79E4-52E9-4FE7-8F1C-7B90734A1ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="310" yWindow="1090" windowWidth="19400" windowHeight="19090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9970" yWindow="1260" windowWidth="22740" windowHeight="19090" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="190">
   <si>
     <t>Main</t>
   </si>
@@ -565,13 +565,62 @@
   </si>
   <si>
     <t xml:space="preserve">Oxazepam </t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market Share </t>
+  </si>
+  <si>
+    <t>Total Market</t>
+  </si>
+  <si>
+    <t>Patient Size</t>
+  </si>
+  <si>
+    <t>Cost/Patient</t>
+  </si>
+  <si>
+    <t>Market Share</t>
+  </si>
+  <si>
+    <t>Total Market Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patients </t>
+  </si>
+  <si>
+    <t>Growth Rate</t>
+  </si>
+  <si>
+    <t>Incidence</t>
+  </si>
+  <si>
+    <t>US Population</t>
+  </si>
+  <si>
+    <t>Total Market Size (Global)</t>
+  </si>
+  <si>
+    <t>Prevalenance (4.4%)</t>
+  </si>
+  <si>
+    <t>**Very Rough Estimates</t>
+  </si>
+  <si>
+    <t>Monthly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,6 +647,13 @@
     <font>
       <b/>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -780,11 +836,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -804,7 +861,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -829,9 +886,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -852,10 +906,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -868,6 +940,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B08A60A-3321-744E-2B4F-89325D5F7452}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="19583400" y="44450"/>
+          <a:ext cx="6350" cy="7518400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1135,14 +1262,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1152,7 +1279,7 @@
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1173,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C4CB2C-D126-4264-A315-99EE47740434}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1187,14 +1314,15 @@
     <col min="4" max="4" width="35.81640625" customWidth="1"/>
     <col min="5" max="5" width="39.81640625" customWidth="1"/>
     <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1210,9 +1338,87 @@
       <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="25" t="s">
+      <c r="H2" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2">
+        <v>2010</v>
+      </c>
+      <c r="J2">
+        <f>I2+1</f>
+        <v>2011</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:AA2" si="0">J2+1</f>
+        <v>2012</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B3" s="24" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="13"/>
@@ -1220,8 +1426,8 @@
       <c r="E3" s="13"/>
       <c r="F3" s="17"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="26"/>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B4" s="25"/>
       <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
@@ -1235,8 +1441,8 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="27"/>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B5" s="26"/>
       <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
@@ -1250,8 +1456,8 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="27"/>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B6" s="26"/>
       <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
@@ -1265,8 +1471,8 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="27"/>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B7" s="26"/>
       <c r="C7" s="9" t="s">
         <v>16</v>
       </c>
@@ -1280,8 +1486,8 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="27"/>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B8" s="26"/>
       <c r="C8" s="9" t="s">
         <v>19</v>
       </c>
@@ -1295,8 +1501,8 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="27"/>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B9" s="26"/>
       <c r="C9" s="9" t="s">
         <v>22</v>
       </c>
@@ -1310,8 +1516,8 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="27"/>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B10" s="26"/>
       <c r="C10" s="9" t="s">
         <v>24</v>
       </c>
@@ -1325,8 +1531,8 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="27"/>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B11" s="26"/>
       <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
@@ -1340,8 +1546,8 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="27"/>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B12" s="26"/>
       <c r="C12" s="9" t="s">
         <v>30</v>
       </c>
@@ -1355,8 +1561,8 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="27"/>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B13" s="26"/>
       <c r="C13" s="9" t="s">
         <v>40</v>
       </c>
@@ -1370,8 +1576,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="27"/>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B14" s="26"/>
       <c r="C14" s="9" t="s">
         <v>42</v>
       </c>
@@ -1385,8 +1591,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="28"/>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B15" s="27"/>
       <c r="C15" s="11" t="s">
         <v>44</v>
       </c>
@@ -1400,8 +1606,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="29" t="s">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B16" s="28" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="15"/>
@@ -1409,7 +1615,7 @@
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B17" s="18"/>
       <c r="C17" s="7" t="s">
         <v>34</v>
@@ -1422,7 +1628,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B18" s="19"/>
       <c r="C18" s="9" t="s">
         <v>36</v>
@@ -1430,14 +1636,14 @@
       <c r="D18" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F18" s="10">
         <v>2003</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B19" s="20"/>
       <c r="C19" s="11" t="s">
         <v>37</v>
@@ -1452,9 +1658,265 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="T20" s="35">
+        <v>4900</v>
+      </c>
+      <c r="U20" s="35">
+        <v>5000</v>
+      </c>
+      <c r="V20" s="35">
+        <v>4800</v>
+      </c>
+      <c r="W20" s="35">
+        <f>V20*1.03</f>
+        <v>4944</v>
+      </c>
+      <c r="X20" s="35">
+        <f t="shared" ref="X20:AA20" si="1">W20*1.03</f>
+        <v>5092.32</v>
+      </c>
+      <c r="Y20" s="35">
+        <f t="shared" si="1"/>
+        <v>5245.0896000000002</v>
+      </c>
+      <c r="Z20" s="35">
+        <f t="shared" si="1"/>
+        <v>5402.4422880000002</v>
+      </c>
+      <c r="AA20" s="35">
+        <f t="shared" si="1"/>
+        <v>5564.5155566399999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21"/>
       <c r="B21" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q21" s="35">
+        <v>332.14003700000001</v>
+      </c>
+      <c r="R21" s="35">
+        <v>334.31967100000003</v>
+      </c>
+      <c r="S21" s="35">
+        <v>335.942003</v>
+      </c>
+      <c r="T21" s="35">
+        <v>336.99762399999997</v>
+      </c>
+      <c r="U21" s="35">
+        <v>338.28985699999998</v>
+      </c>
+      <c r="V21" s="35">
+        <v>339.99656299999998</v>
+      </c>
+      <c r="AC21" s="35" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="H22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q22" s="40">
+        <f>Q21*0.044</f>
+        <v>14.614161628</v>
+      </c>
+      <c r="R22" s="40">
+        <f t="shared" ref="R22:V22" si="2">R21*0.044</f>
+        <v>14.710065524000001</v>
+      </c>
+      <c r="S22" s="40">
+        <f t="shared" si="2"/>
+        <v>14.781448132</v>
+      </c>
+      <c r="T22" s="40">
+        <f t="shared" si="2"/>
+        <v>14.827895455999998</v>
+      </c>
+      <c r="U22" s="40">
+        <f t="shared" si="2"/>
+        <v>14.884753707999998</v>
+      </c>
+      <c r="V22" s="40">
+        <f t="shared" si="2"/>
+        <v>14.959848771999999</v>
+      </c>
+      <c r="W22" s="38">
+        <f t="shared" ref="T22:AA22" si="3">V22+V23</f>
+        <v>15.034943836</v>
+      </c>
+      <c r="X22" s="38">
+        <f t="shared" si="3"/>
+        <v>15.104943836</v>
+      </c>
+      <c r="Y22" s="38">
+        <f t="shared" si="3"/>
+        <v>15.174943836000001</v>
+      </c>
+      <c r="Z22" s="38">
+        <f t="shared" si="3"/>
+        <v>15.244943836000001</v>
+      </c>
+      <c r="AA22" s="38">
+        <f t="shared" si="3"/>
+        <v>15.314943836000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="H23" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37">
+        <f>R22-Q22</f>
+        <v>9.5903896000001154E-2</v>
+      </c>
+      <c r="S23" s="37">
+        <f t="shared" ref="S23:V23" si="4">S22-R22</f>
+        <v>7.1382607999998626E-2</v>
+      </c>
+      <c r="T23" s="37">
+        <f t="shared" si="4"/>
+        <v>4.6447323999998957E-2</v>
+      </c>
+      <c r="U23" s="37">
+        <f t="shared" si="4"/>
+        <v>5.6858251999999609E-2</v>
+      </c>
+      <c r="V23" s="37">
+        <f t="shared" si="4"/>
+        <v>7.5095064000000988E-2</v>
+      </c>
+      <c r="W23" s="37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="X23" s="37">
+        <f t="shared" ref="X23:AA23" si="5">W23</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y23" s="37">
+        <f t="shared" si="5"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Z23" s="37">
+        <f t="shared" si="5"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA23" s="37">
+        <f t="shared" si="5"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="H24" t="s">
+        <v>183</v>
+      </c>
+      <c r="R24" s="39">
+        <f>(R22-Q22)/Q22</f>
+        <v>6.5623946444012295E-3</v>
+      </c>
+      <c r="S24" s="39">
+        <f t="shared" ref="S24:AA24" si="6">(S22-R22)/R22</f>
+        <v>4.8526369840797331E-3</v>
+      </c>
+      <c r="T24" s="39">
+        <f t="shared" si="6"/>
+        <v>3.1422715545337044E-3</v>
+      </c>
+      <c r="U24" s="39">
+        <f t="shared" si="6"/>
+        <v>3.834546323092151E-3</v>
+      </c>
+      <c r="V24" s="39">
+        <f t="shared" si="6"/>
+        <v>5.0450995342731265E-3</v>
+      </c>
+      <c r="W24" s="39">
+        <f t="shared" si="6"/>
+        <v>5.0197742734241187E-3</v>
+      </c>
+      <c r="X24" s="39">
+        <f t="shared" si="6"/>
+        <v>4.6558205180913777E-3</v>
+      </c>
+      <c r="Y24" s="39">
+        <f t="shared" si="6"/>
+        <v>4.6342443083546916E-3</v>
+      </c>
+      <c r="Z24" s="39">
+        <f t="shared" si="6"/>
+        <v>4.6128671549964528E-3</v>
+      </c>
+      <c r="AA24" s="39">
+        <f t="shared" si="6"/>
+        <v>4.5916863160033149E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="H26" t="s">
+        <v>179</v>
+      </c>
+      <c r="T26" s="41">
+        <f>T20/T22</f>
+        <v>330.45822413168224</v>
+      </c>
+      <c r="U26" s="41">
+        <f>U20/U22</f>
+        <v>335.91419099616593</v>
+      </c>
+      <c r="V26" s="41">
+        <f>V20/V22</f>
+        <v>320.85885847884026</v>
+      </c>
+      <c r="W26" s="41">
+        <f>W20/W22</f>
+        <v>328.83395202062394</v>
+      </c>
+      <c r="X26" s="41">
+        <f>X20/X22</f>
+        <v>337.12935680458094</v>
+      </c>
+      <c r="Y26" s="41">
+        <f>Y20/Y22</f>
+        <v>345.64145058361981</v>
+      </c>
+      <c r="Z26" s="41">
+        <f>Z20/Z22</f>
+        <v>354.37600466867343</v>
+      </c>
+      <c r="AA26" s="41">
+        <f>AA20/AA22</f>
+        <v>363.33894634074971</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AB29">
+        <f>AA26/12</f>
+        <v>30.278245528395811</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -1464,15 +1926,16 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9445844B-057C-410E-9C53-97DB8F5D989C}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="H41" sqref="H41:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1483,15 +1946,16 @@
     <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1506,9 +1970,63 @@
       <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="24" t="s">
+      <c r="H2" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2">
+        <v>2010</v>
+      </c>
+      <c r="J2">
+        <f>I2+1</f>
+        <v>2011</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:U2" si="0">J2+1</f>
+        <v>2012</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B3" s="23" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="5"/>
@@ -1516,8 +2034,8 @@
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="25"/>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B4" s="24"/>
       <c r="C4" s="7" t="s">
         <v>62</v>
       </c>
@@ -1531,8 +2049,8 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="30"/>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B5" s="29"/>
       <c r="C5" s="9" t="s">
         <v>63</v>
       </c>
@@ -1546,8 +2064,8 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="30"/>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B6" s="29"/>
       <c r="C6" s="9" t="s">
         <v>64</v>
       </c>
@@ -1561,8 +2079,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="30"/>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B7" s="29"/>
       <c r="C7" s="9" t="s">
         <v>65</v>
       </c>
@@ -1576,8 +2094,8 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="30"/>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B8" s="29"/>
       <c r="C8" s="9" t="s">
         <v>66</v>
       </c>
@@ -1591,8 +2109,8 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="30"/>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B9" s="29"/>
       <c r="C9" s="9" t="s">
         <v>67</v>
       </c>
@@ -1606,8 +2124,8 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="30"/>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B10" s="29"/>
       <c r="C10" s="9" t="s">
         <v>68</v>
       </c>
@@ -1621,8 +2139,8 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="24" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B11" s="23" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="5"/>
@@ -1630,23 +2148,23 @@
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="30"/>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B12" s="29"/>
       <c r="C12" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="9" t="s">
         <v>130</v>
       </c>
       <c r="F12" s="10">
         <v>2004</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="30"/>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B13" s="29"/>
       <c r="C13" s="9" t="s">
         <v>77</v>
       </c>
@@ -1660,8 +2178,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="30"/>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B14" s="29"/>
       <c r="C14" s="9" t="s">
         <v>78</v>
       </c>
@@ -1675,8 +2193,8 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="30"/>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B15" s="29"/>
       <c r="C15" s="9" t="s">
         <v>79</v>
       </c>
@@ -1690,8 +2208,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="24" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B16" s="23" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="5"/>
@@ -1700,46 +2218,46 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="30"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="9" t="s">
         <v>84</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="23"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="30"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="9" t="s">
         <v>86</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="23"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="30"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="9" t="s">
         <v>88</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="23"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="30"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="9" t="s">
         <v>90</v>
       </c>
@@ -1754,7 +2272,7 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="30"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="9" t="s">
         <v>92</v>
       </c>
@@ -1769,7 +2287,7 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="30"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="9" t="s">
         <v>94</v>
       </c>
@@ -1782,7 +2300,7 @@
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="30"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="9" t="s">
         <v>96</v>
       </c>
@@ -1795,7 +2313,7 @@
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="30"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="9" t="s">
         <v>98</v>
       </c>
@@ -1810,7 +2328,7 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="30"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="9" t="s">
         <v>100</v>
       </c>
@@ -1823,7 +2341,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
       <c r="C26" s="5"/>
@@ -1832,40 +2350,40 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="30"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="9" t="s">
         <v>102</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="30"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="9" t="s">
         <v>104</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="30"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="9" t="s">
         <v>106</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="9" t="s">
         <v>138</v>
       </c>
       <c r="F29" s="10">
@@ -1873,14 +2391,14 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="30"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="9" t="s">
         <v>139</v>
       </c>
       <c r="F30" s="10" t="s">
@@ -1888,7 +2406,7 @@
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="23" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="5"/>
@@ -1897,67 +2415,67 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="30"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="9" t="s">
         <v>110</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="9" t="s">
         <v>141</v>
       </c>
       <c r="F32" s="10">
         <v>2006</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="30"/>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B33" s="29"/>
       <c r="C33" s="9" t="s">
         <v>112</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="9" t="s">
         <v>136</v>
       </c>
       <c r="F33" s="10">
         <v>1959</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="30"/>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B34" s="29"/>
       <c r="C34" s="9" t="s">
         <v>114</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="9" t="s">
         <v>142</v>
       </c>
       <c r="F34" s="10">
         <v>1961</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B35" s="30"/>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B35" s="29"/>
       <c r="C35" s="9" t="s">
         <v>116</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="9" t="s">
         <v>143</v>
       </c>
       <c r="F35" s="10">
         <v>1961</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B36" s="24" t="s">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B36" s="23" t="s">
         <v>59</v>
       </c>
       <c r="C36" s="5"/>
@@ -1965,23 +2483,23 @@
       <c r="E36" s="5"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B37" s="30"/>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B37" s="29"/>
       <c r="C37" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="9" t="s">
         <v>144</v>
       </c>
       <c r="F37" s="10">
         <v>2019</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B38" s="25" t="s">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B38" s="24" t="s">
         <v>60</v>
       </c>
       <c r="C38" s="13"/>
@@ -1989,8 +2507,8 @@
       <c r="E38" s="13"/>
       <c r="F38" s="17"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B39" s="29" t="s">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B39" s="28" t="s">
         <v>61</v>
       </c>
       <c r="C39" s="15"/>
@@ -1998,7 +2516,7 @@
       <c r="E39" s="15"/>
       <c r="F39" s="16"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" s="21"/>
       <c r="C40" s="11" t="s">
         <v>120</v>
@@ -2012,10 +2530,26 @@
       <c r="F40" s="12">
         <v>2019</v>
       </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G40" s="32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H41" s="34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
         <v>122</v>
+      </c>
+      <c r="H42" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H43" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2024,6 +2558,7 @@
     <hyperlink ref="B42" r:id="rId1" xr:uid="{5480F090-6E5A-40F5-B71C-BBC4FE09C19A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2086,10 +2621,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE311E2-4799-42D9-917D-AE85E7D7D6E9}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2099,14 +2634,15 @@
     <col min="4" max="4" width="16.26953125" customWidth="1"/>
     <col min="5" max="5" width="14.08984375" customWidth="1"/>
     <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>155</v>
       </c>
@@ -2119,9 +2655,63 @@
       <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C3" s="32" t="s">
+      <c r="H2" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="I2">
+        <v>2010</v>
+      </c>
+      <c r="J2">
+        <f>I2+1</f>
+        <v>2011</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:U2" si="0">J2+1</f>
+        <v>2012</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C3" s="31" t="s">
         <v>148</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -2133,9 +2723,31 @@
       <c r="F3" s="10">
         <v>1996</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C4" s="32"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35">
+        <v>2000</v>
+      </c>
+      <c r="K3" s="35">
+        <f>J3*0.65</f>
+        <v>1300</v>
+      </c>
+      <c r="L3" s="35">
+        <f>K3*0.65</f>
+        <v>845</v>
+      </c>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C4" s="31"/>
       <c r="D4" s="9" t="s">
         <v>161</v>
       </c>
@@ -2145,9 +2757,23 @@
       <c r="F4" s="10">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C5" s="32" t="s">
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C5" s="31" t="s">
         <v>149</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -2159,9 +2785,25 @@
       <c r="F5" s="10">
         <v>2007</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C6" s="32" t="s">
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35">
+        <v>1067</v>
+      </c>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C6" s="31" t="s">
         <v>150</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -2169,9 +2811,23 @@
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C7" s="32" t="s">
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C7" s="31" t="s">
         <v>151</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -2183,9 +2839,23 @@
       <c r="F7" s="10">
         <v>2003</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C8" s="32" t="s">
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C8" s="31" t="s">
         <v>152</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -2197,39 +2867,93 @@
       <c r="F8" s="10">
         <v>2014</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C9" s="32"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C10" s="32" t="s">
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C9" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F9" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C11" s="14" t="s">
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C10" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F10" s="12">
         <v>2023</v>
+      </c>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="H11" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="H13" t="s">
+        <v>178</v>
+      </c>
+      <c r="U13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="H14" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2237,5 +2961,6 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{6AD2F2FA-EA8E-4051-93C8-A099B4A4A586}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>